--- a/files/Стоп-лист.xlsx
+++ b/files/Стоп-лист.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DepsData\Тендер\_Тендеры\Поиск подрядчиков\Производственный план СПБ 2024\Файлы- исходники\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DepsData\Тендер\_Тендеры\Поиск подрядчиков\Производственный план МСК 2024\Файлы-исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC8321-0DA9-402A-A5DE-532C5902A34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DE04D-56ED-4B8B-AD27-0C4C3FEE380E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Справочник от 05.12.2023" sheetId="6" r:id="rId1"/>
+    <sheet name="Справочник от 17.11.23" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Справочник от 05.12.2023'!$B$1:$C$1926</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Справочник от 17.11.23'!$B$1:$C$1943</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="2000">
   <si>
     <t>Монолит</t>
   </si>
@@ -5090,9 +5090,6 @@
   </si>
   <si>
     <t>9718146700Монолит</t>
-  </si>
-  <si>
-    <t>9718146700ОВ и ВК (внутридомовые системы)</t>
   </si>
   <si>
     <t>9718146700Отделочные работы (внутренние)</t>
@@ -5832,6 +5829,36 @@
     <t>7725266106Отделочные работы (наружные)</t>
   </si>
   <si>
+    <t>КНС</t>
+  </si>
+  <si>
+    <t>7715464194Отделочные работы (внутренние)</t>
+  </si>
+  <si>
+    <t>7715464194ОВ и ВК (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>7715464194Слаботочные сети (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>7715464194Кладка стен и перегородок</t>
+  </si>
+  <si>
+    <t>7715464194Кровля</t>
+  </si>
+  <si>
+    <t>7715464194ЭОМ (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>7707483059Отделочные работы (внутренние)</t>
+  </si>
+  <si>
+    <t>7707483059ОВ и ВК (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>7722373780КНС</t>
+  </si>
+  <si>
     <t>7719756328Благоустройство и озеленение</t>
   </si>
   <si>
@@ -5865,12 +5892,6 @@
     <t>7719756328Фасадные работы (вентфасад)</t>
   </si>
   <si>
-    <t>7722373780КНС</t>
-  </si>
-  <si>
-    <t>КНС</t>
-  </si>
-  <si>
     <t>7460043616Благоустройство и озеленение</t>
   </si>
   <si>
@@ -5937,24 +5958,6 @@
     <t>7724351126Фасадные работы (вентфасад)</t>
   </si>
   <si>
-    <t>7715464194Отделочные работы (внутренние)</t>
-  </si>
-  <si>
-    <t>7715464194ОВ и ВК (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>7715464194Слаботочные сети (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>7715464194Кладка стен и перегородок</t>
-  </si>
-  <si>
-    <t>7715464194Кровля</t>
-  </si>
-  <si>
-    <t>7715464194ЭОМ (внутридомовые системы)</t>
-  </si>
-  <si>
     <t>9701142296Благоустройство и озеленение</t>
   </si>
   <si>
@@ -5988,12 +5991,6 @@
     <t>9701142296Фасадные работы (вентфасад)</t>
   </si>
   <si>
-    <t>7707483059Отделочные работы (внутренние)</t>
-  </si>
-  <si>
-    <t>7707483059ОВ и ВК (внутридомовые системы)</t>
-  </si>
-  <si>
     <t>610999706863Благоустройство и озеленение</t>
   </si>
   <si>
@@ -6025,18 +6022,29 @@
   </si>
   <si>
     <t>610999706863Фасадные работы (вентфасад)</t>
+  </si>
+  <si>
+    <t>6312204441Монолит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6062,8 +6070,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6073,6 +6094,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6104,25 +6137,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -6463,10 +6502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2000"/>
+  <dimension ref="A1:C2008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1912" workbookViewId="0">
-      <selection activeCell="A1925" sqref="A1925:C2000"/>
+    <sheetView tabSelected="1" topLeftCell="A1989" workbookViewId="0">
+      <selection activeCell="B2012" sqref="B2012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24832,7 +24871,7 @@
         <v>9718146700</v>
       </c>
       <c r="C1669" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1670" spans="1:3" x14ac:dyDescent="0.3">
@@ -24843,7 +24882,7 @@
         <v>9718146700</v>
       </c>
       <c r="C1670" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.3">
@@ -24854,7 +24893,7 @@
         <v>9718146700</v>
       </c>
       <c r="C1671" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.3">
@@ -24865,7 +24904,7 @@
         <v>9718146700</v>
       </c>
       <c r="C1672" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.3">
@@ -24873,10 +24912,10 @@
         <v>1693</v>
       </c>
       <c r="B1673" s="5">
-        <v>9718146700</v>
+        <v>9718151884</v>
       </c>
       <c r="C1673" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.3">
@@ -24887,7 +24926,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1674" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1675" spans="1:3" x14ac:dyDescent="0.3">
@@ -24898,7 +24937,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1675" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1676" spans="1:3" x14ac:dyDescent="0.3">
@@ -24909,7 +24948,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1676" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.3">
@@ -24920,7 +24959,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1677" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.3">
@@ -24931,7 +24970,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1678" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.3">
@@ -24942,7 +24981,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1679" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1680" spans="1:3" x14ac:dyDescent="0.3">
@@ -24953,7 +24992,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1680" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.3">
@@ -24964,7 +25003,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1681" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.3">
@@ -24975,7 +25014,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1682" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.3">
@@ -24986,7 +25025,7 @@
         <v>9718151884</v>
       </c>
       <c r="C1683" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.3">
@@ -24994,10 +25033,10 @@
         <v>1704</v>
       </c>
       <c r="B1684" s="5">
-        <v>9718151884</v>
+        <v>9718169024</v>
       </c>
       <c r="C1684" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.3">
@@ -25008,7 +25047,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1685" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.3">
@@ -25019,7 +25058,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1686" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.3">
@@ -25030,7 +25069,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1687" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.3">
@@ -25041,7 +25080,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1688" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.3">
@@ -25052,7 +25091,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1689" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.3">
@@ -25063,7 +25102,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1690" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.3">
@@ -25074,7 +25113,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1691" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.3">
@@ -25085,7 +25124,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1692" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.3">
@@ -25096,7 +25135,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1693" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.3">
@@ -25107,7 +25146,7 @@
         <v>9718169024</v>
       </c>
       <c r="C1694" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.3">
@@ -25115,10 +25154,10 @@
         <v>1715</v>
       </c>
       <c r="B1695" s="5">
-        <v>9718169024</v>
+        <v>9721048069</v>
       </c>
       <c r="C1695" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.3">
@@ -25129,7 +25168,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1696" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.3">
@@ -25140,7 +25179,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1697" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.3">
@@ -25151,7 +25190,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1698" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.3">
@@ -25162,7 +25201,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1699" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.3">
@@ -25173,7 +25212,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1700" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.3">
@@ -25184,7 +25223,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1701" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1702" spans="1:3" x14ac:dyDescent="0.3">
@@ -25195,7 +25234,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1702" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.3">
@@ -25206,7 +25245,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1703" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.3">
@@ -25217,7 +25256,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1704" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.3">
@@ -25228,7 +25267,7 @@
         <v>9721048069</v>
       </c>
       <c r="C1705" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1706" spans="1:3" x14ac:dyDescent="0.3">
@@ -25236,10 +25275,10 @@
         <v>1726</v>
       </c>
       <c r="B1706" s="5">
-        <v>9721048069</v>
+        <v>9723082812</v>
       </c>
       <c r="C1706" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.3">
@@ -25250,7 +25289,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1707" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.3">
@@ -25261,7 +25300,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1708" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.3">
@@ -25272,7 +25311,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.3">
@@ -25283,7 +25322,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.3">
@@ -25294,7 +25333,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1711" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.3">
@@ -25305,7 +25344,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1712" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.3">
@@ -25316,7 +25355,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.3">
@@ -25327,7 +25366,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1714" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.3">
@@ -25338,7 +25377,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1715" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.3">
@@ -25349,7 +25388,7 @@
         <v>9723082812</v>
       </c>
       <c r="C1716" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.3">
@@ -25357,10 +25396,10 @@
         <v>1737</v>
       </c>
       <c r="B1717" s="5">
-        <v>9723082812</v>
+        <v>9728044306</v>
       </c>
       <c r="C1717" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.3">
@@ -25371,7 +25410,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1718" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.3">
@@ -25382,7 +25421,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1719" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.3">
@@ -25393,7 +25432,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1720" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.3">
@@ -25404,7 +25443,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1721" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.3">
@@ -25415,7 +25454,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1722" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.3">
@@ -25426,7 +25465,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1723" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1724" spans="1:3" x14ac:dyDescent="0.3">
@@ -25437,7 +25476,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1724" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.3">
@@ -25448,7 +25487,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1725" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1726" spans="1:3" x14ac:dyDescent="0.3">
@@ -25459,7 +25498,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1726" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1727" spans="1:3" x14ac:dyDescent="0.3">
@@ -25470,7 +25509,7 @@
         <v>9728044306</v>
       </c>
       <c r="C1727" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1728" spans="1:3" x14ac:dyDescent="0.3">
@@ -25478,10 +25517,10 @@
         <v>1748</v>
       </c>
       <c r="B1728" s="5">
-        <v>9728044306</v>
+        <v>9729159290</v>
       </c>
       <c r="C1728" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1729" spans="1:3" x14ac:dyDescent="0.3">
@@ -25492,7 +25531,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1729" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1730" spans="1:3" x14ac:dyDescent="0.3">
@@ -25503,7 +25542,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1730" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1731" spans="1:3" x14ac:dyDescent="0.3">
@@ -25514,7 +25553,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1731" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1732" spans="1:3" x14ac:dyDescent="0.3">
@@ -25525,7 +25564,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1732" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1733" spans="1:3" x14ac:dyDescent="0.3">
@@ -25536,7 +25575,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1733" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734" spans="1:3" x14ac:dyDescent="0.3">
@@ -25547,7 +25586,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1734" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1735" spans="1:3" x14ac:dyDescent="0.3">
@@ -25558,7 +25597,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1735" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1736" spans="1:3" x14ac:dyDescent="0.3">
@@ -25569,7 +25608,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1736" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1737" spans="1:3" x14ac:dyDescent="0.3">
@@ -25580,7 +25619,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1737" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1738" spans="1:3" x14ac:dyDescent="0.3">
@@ -25591,7 +25630,7 @@
         <v>9729159290</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1739" spans="1:3" x14ac:dyDescent="0.3">
@@ -25599,10 +25638,10 @@
         <v>1759</v>
       </c>
       <c r="B1739" s="5">
-        <v>9729159290</v>
+        <v>5029111672</v>
       </c>
       <c r="C1739" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1740" spans="1:3" x14ac:dyDescent="0.3">
@@ -25613,7 +25652,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1740" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1741" spans="1:3" x14ac:dyDescent="0.3">
@@ -25624,7 +25663,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1741" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1742" spans="1:3" x14ac:dyDescent="0.3">
@@ -25635,7 +25674,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1742" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1743" spans="1:3" x14ac:dyDescent="0.3">
@@ -25646,7 +25685,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1743" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1744" spans="1:3" x14ac:dyDescent="0.3">
@@ -25657,7 +25696,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1744" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1745" spans="1:3" x14ac:dyDescent="0.3">
@@ -25668,7 +25707,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1746" spans="1:3" x14ac:dyDescent="0.3">
@@ -25679,7 +25718,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1746" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1747" spans="1:3" x14ac:dyDescent="0.3">
@@ -25690,7 +25729,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1748" spans="1:3" x14ac:dyDescent="0.3">
@@ -25701,7 +25740,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1748" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1749" spans="1:3" x14ac:dyDescent="0.3">
@@ -25712,7 +25751,7 @@
         <v>5029111672</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1750" spans="1:3" x14ac:dyDescent="0.3">
@@ -25720,10 +25759,10 @@
         <v>1770</v>
       </c>
       <c r="B1750" s="5">
-        <v>5029111672</v>
+        <v>5029261685</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1751" spans="1:3" x14ac:dyDescent="0.3">
@@ -25734,7 +25773,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1751" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1752" spans="1:3" x14ac:dyDescent="0.3">
@@ -25745,7 +25784,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1752" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1753" spans="1:3" x14ac:dyDescent="0.3">
@@ -25756,7 +25795,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1753" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1754" spans="1:3" x14ac:dyDescent="0.3">
@@ -25767,7 +25806,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1754" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1755" spans="1:3" x14ac:dyDescent="0.3">
@@ -25778,7 +25817,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1755" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:3" x14ac:dyDescent="0.3">
@@ -25789,7 +25828,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1756" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1757" spans="1:3" x14ac:dyDescent="0.3">
@@ -25800,7 +25839,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1757" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1758" spans="1:3" x14ac:dyDescent="0.3">
@@ -25811,7 +25850,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1758" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1759" spans="1:3" x14ac:dyDescent="0.3">
@@ -25822,7 +25861,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1759" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1760" spans="1:3" x14ac:dyDescent="0.3">
@@ -25833,7 +25872,7 @@
         <v>5029261685</v>
       </c>
       <c r="C1760" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1761" spans="1:3" x14ac:dyDescent="0.3">
@@ -25841,10 +25880,10 @@
         <v>1781</v>
       </c>
       <c r="B1761" s="5">
-        <v>5029261685</v>
+        <v>7705918339</v>
       </c>
       <c r="C1761" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1762" spans="1:3" x14ac:dyDescent="0.3">
@@ -25855,7 +25894,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1762" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1763" spans="1:3" x14ac:dyDescent="0.3">
@@ -25866,7 +25905,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1763" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1764" spans="1:3" x14ac:dyDescent="0.3">
@@ -25877,7 +25916,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1764" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1765" spans="1:3" x14ac:dyDescent="0.3">
@@ -25888,7 +25927,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1765" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1766" spans="1:3" x14ac:dyDescent="0.3">
@@ -25899,7 +25938,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1766" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1767" spans="1:3" x14ac:dyDescent="0.3">
@@ -25910,7 +25949,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1767" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1768" spans="1:3" x14ac:dyDescent="0.3">
@@ -25921,7 +25960,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1768" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1769" spans="1:3" x14ac:dyDescent="0.3">
@@ -25932,7 +25971,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1769" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1770" spans="1:3" x14ac:dyDescent="0.3">
@@ -25943,7 +25982,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1770" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1771" spans="1:3" x14ac:dyDescent="0.3">
@@ -25954,7 +25993,7 @@
         <v>7705918339</v>
       </c>
       <c r="C1771" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1772" spans="1:3" x14ac:dyDescent="0.3">
@@ -25962,10 +26001,10 @@
         <v>1792</v>
       </c>
       <c r="B1772" s="5">
-        <v>7705918339</v>
+        <v>7706795369</v>
       </c>
       <c r="C1772" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1773" spans="1:3" x14ac:dyDescent="0.3">
@@ -25976,7 +26015,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1773" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1774" spans="1:3" x14ac:dyDescent="0.3">
@@ -25987,7 +26026,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1774" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1775" spans="1:3" x14ac:dyDescent="0.3">
@@ -25998,7 +26037,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1775" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1776" spans="1:3" x14ac:dyDescent="0.3">
@@ -26009,7 +26048,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1776" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1777" spans="1:3" x14ac:dyDescent="0.3">
@@ -26020,7 +26059,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1777" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1778" spans="1:3" x14ac:dyDescent="0.3">
@@ -26031,7 +26070,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1778" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1779" spans="1:3" x14ac:dyDescent="0.3">
@@ -26042,7 +26081,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1779" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1780" spans="1:3" x14ac:dyDescent="0.3">
@@ -26053,7 +26092,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1780" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1781" spans="1:3" x14ac:dyDescent="0.3">
@@ -26064,7 +26103,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1781" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.3">
@@ -26075,7 +26114,7 @@
         <v>7706795369</v>
       </c>
       <c r="C1782" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1783" spans="1:3" x14ac:dyDescent="0.3">
@@ -26083,10 +26122,10 @@
         <v>1803</v>
       </c>
       <c r="B1783" s="5">
-        <v>7706795369</v>
+        <v>7716967384</v>
       </c>
       <c r="C1783" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1784" spans="1:3" x14ac:dyDescent="0.3">
@@ -26097,7 +26136,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1784" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1785" spans="1:3" x14ac:dyDescent="0.3">
@@ -26108,7 +26147,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1785" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1786" spans="1:3" x14ac:dyDescent="0.3">
@@ -26119,7 +26158,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1786" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.3">
@@ -26130,7 +26169,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1787" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1788" spans="1:3" x14ac:dyDescent="0.3">
@@ -26141,7 +26180,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1788" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.3">
@@ -26152,7 +26191,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1789" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.3">
@@ -26163,7 +26202,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1790" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.3">
@@ -26174,7 +26213,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1791" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.3">
@@ -26185,7 +26224,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1792" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.3">
@@ -26196,7 +26235,7 @@
         <v>7716967384</v>
       </c>
       <c r="C1793" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.3">
@@ -26204,10 +26243,10 @@
         <v>1814</v>
       </c>
       <c r="B1794" s="5">
-        <v>7716967384</v>
+        <v>7719468746</v>
       </c>
       <c r="C1794" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.3">
@@ -26218,7 +26257,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1795" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.3">
@@ -26229,7 +26268,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1796" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.3">
@@ -26240,7 +26279,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1797" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.3">
@@ -26251,7 +26290,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1798" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.3">
@@ -26262,7 +26301,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1799" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.3">
@@ -26273,7 +26312,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1800" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.3">
@@ -26284,7 +26323,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1801" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1802" spans="1:3" x14ac:dyDescent="0.3">
@@ -26295,7 +26334,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1802" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1803" spans="1:3" x14ac:dyDescent="0.3">
@@ -26306,7 +26345,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1803" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1804" spans="1:3" x14ac:dyDescent="0.3">
@@ -26317,7 +26356,7 @@
         <v>7719468746</v>
       </c>
       <c r="C1804" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1805" spans="1:3" x14ac:dyDescent="0.3">
@@ -26325,10 +26364,10 @@
         <v>1825</v>
       </c>
       <c r="B1805" s="5">
-        <v>7719468746</v>
+        <v>7726666876</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1806" spans="1:3" x14ac:dyDescent="0.3">
@@ -26339,7 +26378,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1807" spans="1:3" x14ac:dyDescent="0.3">
@@ -26350,7 +26389,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1807" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1808" spans="1:3" x14ac:dyDescent="0.3">
@@ -26361,7 +26400,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1808" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1809" spans="1:3" x14ac:dyDescent="0.3">
@@ -26372,7 +26411,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1809" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.3">
@@ -26383,7 +26422,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1810" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1811" spans="1:3" x14ac:dyDescent="0.3">
@@ -26394,7 +26433,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1811" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1812" spans="1:3" x14ac:dyDescent="0.3">
@@ -26405,7 +26444,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1812" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1813" spans="1:3" x14ac:dyDescent="0.3">
@@ -26416,7 +26455,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1813" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1814" spans="1:3" x14ac:dyDescent="0.3">
@@ -26427,7 +26466,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1814" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1815" spans="1:3" x14ac:dyDescent="0.3">
@@ -26438,7 +26477,7 @@
         <v>7726666876</v>
       </c>
       <c r="C1815" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1816" spans="1:3" x14ac:dyDescent="0.3">
@@ -26446,10 +26485,10 @@
         <v>1836</v>
       </c>
       <c r="B1816" s="5">
-        <v>7726666876</v>
+        <v>7729443927</v>
       </c>
       <c r="C1816" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1817" spans="1:3" x14ac:dyDescent="0.3">
@@ -26460,7 +26499,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1817" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1818" spans="1:3" x14ac:dyDescent="0.3">
@@ -26471,7 +26510,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1818" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1819" spans="1:3" x14ac:dyDescent="0.3">
@@ -26482,7 +26521,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1819" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1820" spans="1:3" x14ac:dyDescent="0.3">
@@ -26493,7 +26532,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1820" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1821" spans="1:3" x14ac:dyDescent="0.3">
@@ -26504,7 +26543,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1821" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1822" spans="1:3" x14ac:dyDescent="0.3">
@@ -26515,7 +26554,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1822" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1823" spans="1:3" x14ac:dyDescent="0.3">
@@ -26526,7 +26565,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1823" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1824" spans="1:3" x14ac:dyDescent="0.3">
@@ -26537,7 +26576,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1824" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1825" spans="1:3" x14ac:dyDescent="0.3">
@@ -26548,7 +26587,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1825" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1826" spans="1:3" x14ac:dyDescent="0.3">
@@ -26559,7 +26598,7 @@
         <v>7729443927</v>
       </c>
       <c r="C1826" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.3">
@@ -26567,10 +26606,10 @@
         <v>1847</v>
       </c>
       <c r="B1827" s="5">
-        <v>7729443927</v>
+        <v>7816674141</v>
       </c>
       <c r="C1827" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1828" spans="1:3" x14ac:dyDescent="0.3">
@@ -26581,7 +26620,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1828" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1829" spans="1:3" x14ac:dyDescent="0.3">
@@ -26592,7 +26631,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1829" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1830" spans="1:3" x14ac:dyDescent="0.3">
@@ -26603,7 +26642,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1830" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1831" spans="1:3" x14ac:dyDescent="0.3">
@@ -26614,7 +26653,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1831" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1832" spans="1:3" x14ac:dyDescent="0.3">
@@ -26625,7 +26664,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1832" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1833" spans="1:3" x14ac:dyDescent="0.3">
@@ -26636,7 +26675,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1833" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1834" spans="1:3" x14ac:dyDescent="0.3">
@@ -26647,7 +26686,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1834" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1835" spans="1:3" x14ac:dyDescent="0.3">
@@ -26658,7 +26697,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1836" spans="1:3" x14ac:dyDescent="0.3">
@@ -26669,7 +26708,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1836" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1837" spans="1:3" x14ac:dyDescent="0.3">
@@ -26680,7 +26719,7 @@
         <v>7816674141</v>
       </c>
       <c r="C1837" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1838" spans="1:3" x14ac:dyDescent="0.3">
@@ -26688,10 +26727,10 @@
         <v>1858</v>
       </c>
       <c r="B1838" s="5">
-        <v>7816674141</v>
+        <v>9731035929</v>
       </c>
       <c r="C1838" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1839" spans="1:3" x14ac:dyDescent="0.3">
@@ -26702,7 +26741,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1840" spans="1:3" x14ac:dyDescent="0.3">
@@ -26713,7 +26752,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1840" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1841" spans="1:3" x14ac:dyDescent="0.3">
@@ -26724,7 +26763,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1841" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1842" spans="1:3" x14ac:dyDescent="0.3">
@@ -26735,7 +26774,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1842" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1843" spans="1:3" x14ac:dyDescent="0.3">
@@ -26746,7 +26785,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1843" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844" spans="1:3" x14ac:dyDescent="0.3">
@@ -26757,7 +26796,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1844" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1845" spans="1:3" x14ac:dyDescent="0.3">
@@ -26768,7 +26807,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1845" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1846" spans="1:3" x14ac:dyDescent="0.3">
@@ -26779,7 +26818,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1846" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1847" spans="1:3" x14ac:dyDescent="0.3">
@@ -26790,7 +26829,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1847" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1848" spans="1:3" x14ac:dyDescent="0.3">
@@ -26801,7 +26840,7 @@
         <v>9731035929</v>
       </c>
       <c r="C1848" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1849" spans="1:3" x14ac:dyDescent="0.3">
@@ -26809,10 +26848,10 @@
         <v>1869</v>
       </c>
       <c r="B1849" s="5">
-        <v>9731035929</v>
+        <v>6679043118</v>
       </c>
       <c r="C1849" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1850" spans="1:3" x14ac:dyDescent="0.3">
@@ -26823,7 +26862,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1850" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1851" spans="1:3" x14ac:dyDescent="0.3">
@@ -26834,7 +26873,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1851" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1852" spans="1:3" x14ac:dyDescent="0.3">
@@ -26845,7 +26884,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1852" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1853" spans="1:3" x14ac:dyDescent="0.3">
@@ -26856,7 +26895,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1853" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1854" spans="1:3" x14ac:dyDescent="0.3">
@@ -26867,7 +26906,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1854" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1855" spans="1:3" x14ac:dyDescent="0.3">
@@ -26878,7 +26917,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1855" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1856" spans="1:3" x14ac:dyDescent="0.3">
@@ -26889,7 +26928,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1856" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1857" spans="1:3" x14ac:dyDescent="0.3">
@@ -26900,7 +26939,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1857" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1858" spans="1:3" x14ac:dyDescent="0.3">
@@ -26911,7 +26950,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1858" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1859" spans="1:3" x14ac:dyDescent="0.3">
@@ -26922,7 +26961,7 @@
         <v>6679043118</v>
       </c>
       <c r="C1859" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1860" spans="1:3" x14ac:dyDescent="0.3">
@@ -26930,10 +26969,10 @@
         <v>1880</v>
       </c>
       <c r="B1860" s="5">
-        <v>6679043118</v>
+        <v>7731533053</v>
       </c>
       <c r="C1860" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1861" spans="1:3" x14ac:dyDescent="0.3">
@@ -26944,7 +26983,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1861" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1862" spans="1:3" x14ac:dyDescent="0.3">
@@ -26955,7 +26994,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1862" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1863" spans="1:3" x14ac:dyDescent="0.3">
@@ -26966,7 +27005,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1863" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1864" spans="1:3" x14ac:dyDescent="0.3">
@@ -26977,7 +27016,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1864" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1865" spans="1:3" x14ac:dyDescent="0.3">
@@ -26988,7 +27027,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1865" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:3" x14ac:dyDescent="0.3">
@@ -26999,7 +27038,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1866" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1867" spans="1:3" x14ac:dyDescent="0.3">
@@ -27010,7 +27049,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1867" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1868" spans="1:3" x14ac:dyDescent="0.3">
@@ -27021,7 +27060,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1868" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1869" spans="1:3" x14ac:dyDescent="0.3">
@@ -27032,7 +27071,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1869" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1870" spans="1:3" x14ac:dyDescent="0.3">
@@ -27043,7 +27082,7 @@
         <v>7731533053</v>
       </c>
       <c r="C1870" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1871" spans="1:3" x14ac:dyDescent="0.3">
@@ -27051,10 +27090,10 @@
         <v>1891</v>
       </c>
       <c r="B1871" s="5">
-        <v>7731533053</v>
+        <v>9721081309</v>
       </c>
       <c r="C1871" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1872" spans="1:3" x14ac:dyDescent="0.3">
@@ -27065,7 +27104,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1872" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1873" spans="1:3" x14ac:dyDescent="0.3">
@@ -27076,7 +27115,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1873" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1874" spans="1:3" x14ac:dyDescent="0.3">
@@ -27087,7 +27126,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1874" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1875" spans="1:3" x14ac:dyDescent="0.3">
@@ -27098,7 +27137,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1875" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1876" spans="1:3" x14ac:dyDescent="0.3">
@@ -27109,7 +27148,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1876" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1877" spans="1:3" x14ac:dyDescent="0.3">
@@ -27120,7 +27159,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1877" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1878" spans="1:3" x14ac:dyDescent="0.3">
@@ -27131,7 +27170,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1878" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1879" spans="1:3" x14ac:dyDescent="0.3">
@@ -27142,7 +27181,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1879" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1880" spans="1:3" x14ac:dyDescent="0.3">
@@ -27153,7 +27192,7 @@
         <v>9721081309</v>
       </c>
       <c r="C1880" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1881" spans="1:3" x14ac:dyDescent="0.3">
@@ -27164,26 +27203,26 @@
         <v>9721081309</v>
       </c>
       <c r="C1881" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1882" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1882" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B1882" s="5">
-        <v>9721081309</v>
-      </c>
-      <c r="C1882" s="1" t="s">
-        <v>19</v>
+      <c r="A1882" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1882" s="11">
+        <v>7725266106</v>
+      </c>
+      <c r="C1882" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="1883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1883" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="B1883" s="11">
-        <v>7725266106</v>
+      <c r="B1883" s="10">
+        <v>274933344</v>
       </c>
       <c r="C1883" s="9" t="s">
         <v>3</v>
@@ -27194,10 +27233,10 @@
         <v>1905</v>
       </c>
       <c r="B1884" s="10">
-        <v>274933344</v>
+        <v>5024193872</v>
       </c>
       <c r="C1884" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1885" spans="1:3" x14ac:dyDescent="0.3">
@@ -27205,10 +27244,10 @@
         <v>1906</v>
       </c>
       <c r="B1885" s="10">
-        <v>5024193872</v>
+        <v>5029257600</v>
       </c>
       <c r="C1885" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1886" spans="1:3" x14ac:dyDescent="0.3">
@@ -27216,10 +27255,10 @@
         <v>1907</v>
       </c>
       <c r="B1886" s="10">
-        <v>5029257600</v>
+        <v>5045026745</v>
       </c>
       <c r="C1886" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1887" spans="1:3" x14ac:dyDescent="0.3">
@@ -27227,7 +27266,7 @@
         <v>1908</v>
       </c>
       <c r="B1887" s="10">
-        <v>5045026745</v>
+        <v>6230022715</v>
       </c>
       <c r="C1887" s="9" t="s">
         <v>0</v>
@@ -27238,10 +27277,10 @@
         <v>1909</v>
       </c>
       <c r="B1888" s="10">
-        <v>6230022715</v>
+        <v>7708371478</v>
       </c>
       <c r="C1888" s="9" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1889" spans="1:3" x14ac:dyDescent="0.3">
@@ -27249,10 +27288,10 @@
         <v>1910</v>
       </c>
       <c r="B1889" s="10">
-        <v>7708371478</v>
+        <v>7715403113</v>
       </c>
       <c r="C1889" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1890" spans="1:3" x14ac:dyDescent="0.3">
@@ -27263,7 +27302,7 @@
         <v>7715403113</v>
       </c>
       <c r="C1890" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1891" spans="1:3" x14ac:dyDescent="0.3">
@@ -27271,10 +27310,10 @@
         <v>1912</v>
       </c>
       <c r="B1891" s="10">
-        <v>7715403113</v>
+        <v>7720395080</v>
       </c>
       <c r="C1891" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:3" x14ac:dyDescent="0.3">
@@ -27282,32 +27321,32 @@
         <v>1913</v>
       </c>
       <c r="B1892" s="10">
-        <v>7720395080</v>
+        <v>7724428234</v>
       </c>
       <c r="C1892" s="9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1893" s="9" t="s">
         <v>1914</v>
       </c>
-      <c r="B1893" s="10">
-        <v>7724428234</v>
+      <c r="B1893" s="11">
+        <v>7727422953</v>
       </c>
       <c r="C1893" s="9" t="s">
-        <v>5</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1894" s="9" t="s">
         <v>1915</v>
       </c>
-      <c r="B1894" s="11">
-        <v>7727422953</v>
+      <c r="B1894" s="10">
+        <v>7728874007</v>
       </c>
       <c r="C1894" s="9" t="s">
-        <v>1903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1895" spans="1:3" x14ac:dyDescent="0.3">
@@ -27315,10 +27354,10 @@
         <v>1916</v>
       </c>
       <c r="B1895" s="10">
-        <v>7728874007</v>
+        <v>7734650044</v>
       </c>
       <c r="C1895" s="9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1896" spans="1:3" x14ac:dyDescent="0.3">
@@ -27326,10 +27365,10 @@
         <v>1917</v>
       </c>
       <c r="B1896" s="10">
-        <v>7734650044</v>
+        <v>7743820285</v>
       </c>
       <c r="C1896" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1897" spans="1:3" x14ac:dyDescent="0.3">
@@ -27337,10 +27376,10 @@
         <v>1918</v>
       </c>
       <c r="B1897" s="10">
-        <v>7743820285</v>
+        <v>9715201086</v>
       </c>
       <c r="C1897" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1898" spans="1:3" x14ac:dyDescent="0.3">
@@ -27348,10 +27387,10 @@
         <v>1919</v>
       </c>
       <c r="B1898" s="10">
-        <v>9715201086</v>
+        <v>9728041760</v>
       </c>
       <c r="C1898" s="9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1899" spans="1:3" x14ac:dyDescent="0.3">
@@ -27359,10 +27398,10 @@
         <v>1920</v>
       </c>
       <c r="B1899" s="10">
-        <v>9728041760</v>
+        <v>7727422953</v>
       </c>
       <c r="C1899" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1900" spans="1:3" x14ac:dyDescent="0.3">
@@ -27373,7 +27412,7 @@
         <v>7727422953</v>
       </c>
       <c r="C1900" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1901" spans="1:3" x14ac:dyDescent="0.3">
@@ -27384,1123 +27423,1210 @@
         <v>7727422953</v>
       </c>
       <c r="C1901" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1902" s="9" t="s">
         <v>1923</v>
       </c>
       <c r="B1902" s="10">
-        <v>7727422953</v>
+        <v>9731078672</v>
       </c>
       <c r="C1902" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1903" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1903" s="9" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B1903" s="10">
-        <v>9731078672</v>
-      </c>
-      <c r="C1903" s="9" t="s">
-        <v>3</v>
+      <c r="A1903" s="12" t="str">
+        <f t="shared" ref="A1903:A1914" si="0">CONCATENATE(B1903,C1903:C19349)</f>
+        <v>7704392822Лифты (ПИР и СМР)</v>
+      </c>
+      <c r="B1903" s="13">
+        <v>7704392822</v>
+      </c>
+      <c r="C1903" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1904" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1904" s="12" t="str">
-        <f t="shared" ref="A1904:A1926" si="0">CONCATENATE(B1904,C1904:C19352)</f>
-        <v>7704392822Лифты (ПИР и СМР)</v>
-      </c>
-      <c r="B1904" s="13">
-        <v>7704392822</v>
-      </c>
-      <c r="C1904" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1905" s="12" t="str">
+      <c r="A1904" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Благоустройство и озеленение</v>
       </c>
-      <c r="B1905" s="13">
+      <c r="B1904" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1905" s="12" t="s">
+      <c r="C1904" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="1906" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1906" s="12" t="str">
+    <row r="1905" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1905" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Земляные работы</v>
       </c>
-      <c r="B1906" s="13">
+      <c r="B1905" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1906" s="12" t="s">
+      <c r="C1905" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1907" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1907" s="12" t="str">
+    <row r="1906" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1906" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Кладка стен и перегородок</v>
       </c>
-      <c r="B1907" s="13">
+      <c r="B1906" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1907" s="12" t="s">
+      <c r="C1906" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="1908" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1908" s="12" t="str">
+    <row r="1907" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1907" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Кровля</v>
       </c>
-      <c r="B1908" s="13">
+      <c r="B1907" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1908" s="12" t="s">
+      <c r="C1907" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1909" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1909" s="12" t="str">
+    <row r="1908" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1908" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Лифты (ПИР и СМР)</v>
       </c>
-      <c r="B1909" s="13">
+      <c r="B1908" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1909" s="12" t="s">
+      <c r="C1908" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1910" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1910" s="12" t="str">
+    <row r="1909" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1909" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Монолит</v>
       </c>
-      <c r="B1910" s="13">
+      <c r="B1909" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1910" s="12" t="s">
+      <c r="C1909" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="1911" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1911" s="12" t="str">
+    <row r="1910" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1910" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850ОВ и ВК (внутридомовые системы)</v>
       </c>
-      <c r="B1911" s="13">
+      <c r="B1910" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1911" s="12" t="s">
+      <c r="C1910" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="1912" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1912" s="12" t="str">
+    <row r="1911" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1911" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Отделочные работы (внутренние)</v>
       </c>
-      <c r="B1912" s="13">
+      <c r="B1911" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1912" s="12" t="s">
+      <c r="C1911" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1913" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1913" s="12" t="str">
+    <row r="1912" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1912" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850Слаботочные сети (внутридомовые системы)</v>
       </c>
-      <c r="B1913" s="13">
+      <c r="B1912" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1913" s="12" t="s">
+      <c r="C1912" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1914" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1914" s="12" t="str">
+    <row r="1913" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1913" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9715275850ЭОМ (внутридомовые системы)</v>
       </c>
-      <c r="B1914" s="13">
+      <c r="B1913" s="17">
         <v>9715275850</v>
       </c>
-      <c r="C1914" s="12" t="s">
+      <c r="C1913" s="16" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1914" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>9715275850Фасадные работы (вентфасад)</v>
+      </c>
+      <c r="B1914" s="17">
+        <v>9715275850</v>
+      </c>
+      <c r="C1914" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1915" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1915" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>9715275850Фасадные работы (вентфасад)</v>
+        <f t="shared" ref="A1915:A1924" si="1">CONCATENATE(B1915,C1915:C19362)</f>
+        <v>7706440888Благоустройство и озеленение</v>
       </c>
       <c r="B1915" s="13">
-        <v>9715275850</v>
+        <v>7706440888</v>
       </c>
       <c r="C1915" s="12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1916" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1916" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>6230022715Монолит</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Земляные работы</v>
       </c>
       <c r="B1916" s="13">
-        <v>6230022715</v>
+        <v>7706440888</v>
       </c>
       <c r="C1916" s="12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1917" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1917" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Благоустройство и озеленение</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Кладка стен и перегородок</v>
       </c>
       <c r="B1917" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1917" s="12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1918" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1918" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Земляные работы</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Кровля</v>
       </c>
       <c r="B1918" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1918" s="12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1919" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1919" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Кладка стен и перегородок</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Лифты (ПИР и СМР)</v>
       </c>
       <c r="B1919" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1919" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1920" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1920" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Кровля</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Монолит</v>
       </c>
       <c r="B1920" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1920" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1921" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Лифты (ПИР и СМР)</v>
+        <f t="shared" si="1"/>
+        <v>7706440888ОВ и ВК (внутридомовые системы)</v>
       </c>
       <c r="B1921" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1921" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1922" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1922" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Монолит</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Отделочные работы (внутренние)</v>
       </c>
       <c r="B1922" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1922" s="12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1923" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1923" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888ОВ и ВК (внутридомовые системы)</v>
+        <f t="shared" si="1"/>
+        <v>7706440888Слаботочные сети (внутридомовые системы)</v>
       </c>
       <c r="B1923" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1923" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1924" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1924" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Отделочные работы (внутренние)</v>
+        <f t="shared" si="1"/>
+        <v>7706440888ЭОМ (внутридомовые системы)</v>
       </c>
       <c r="B1924" s="13">
         <v>7706440888</v>
       </c>
       <c r="C1924" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1925" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888Слаботочные сети (внутридомовые системы)</v>
-      </c>
-      <c r="B1925" s="13">
-        <v>7706440888</v>
-      </c>
-      <c r="C1925" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1926" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>7706440888ЭОМ (внутридомовые системы)</v>
-      </c>
-      <c r="B1926" s="13">
-        <v>7706440888</v>
-      </c>
-      <c r="C1926" s="12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1925" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1925" s="6">
+        <v>7725266106</v>
+      </c>
+      <c r="C1925" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1926" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="7">
+        <v>5024187981</v>
+      </c>
+      <c r="C1926" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1927" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B1927" s="6">
-        <v>7725266106</v>
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="7">
+        <v>7702330725</v>
       </c>
       <c r="C1927" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1928" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1928" s="7">
-        <v>5024187981</v>
+        <v>7705546031</v>
       </c>
       <c r="C1928" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1929" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1929" s="7">
-        <v>7702330725</v>
+        <v>7707442221</v>
       </c>
       <c r="C1929" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1930" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B1930" s="7">
-        <v>7705546031</v>
+        <v>7708371478</v>
       </c>
       <c r="C1930" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1931" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1931" s="7">
-        <v>7707442221</v>
+        <v>7715403113</v>
       </c>
       <c r="C1931" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1932" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1932" s="7">
-        <v>7708371478</v>
+        <v>7715403113</v>
       </c>
       <c r="C1932" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1933" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1933" s="7">
-        <v>7715403113</v>
+        <v>7719486030</v>
       </c>
       <c r="C1933" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1934" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1934" s="7">
-        <v>7715403113</v>
+        <v>7743882242</v>
       </c>
       <c r="C1934" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1935" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1935" s="2" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B1935" s="7">
-        <v>7719486030</v>
-      </c>
-      <c r="C1935" s="2" t="s">
-        <v>20</v>
+      <c r="A1935" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1935" s="15">
+        <v>7715464194</v>
+      </c>
+      <c r="C1935" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="1936" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1936" s="2" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B1936" s="7">
-        <v>7743882242</v>
-      </c>
-      <c r="C1936" s="2" t="s">
-        <v>18</v>
+      <c r="A1936" s="14" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1936" s="15">
+        <v>7715464194</v>
+      </c>
+      <c r="C1936" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="1937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1937" s="14" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B1937" s="15">
-        <v>7719756328</v>
+        <v>7715464194</v>
       </c>
       <c r="C1937" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1938" s="14" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B1938" s="15">
-        <v>7719756328</v>
+        <v>7715464194</v>
       </c>
       <c r="C1938" s="14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1939" s="14" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B1939" s="15">
-        <v>7719756328</v>
+        <v>7715464194</v>
       </c>
       <c r="C1939" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1940" s="14" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B1940" s="15">
-        <v>7719756328</v>
+        <v>7715464194</v>
       </c>
       <c r="C1940" s="14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1941" s="14" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B1941" s="15">
-        <v>7719756328</v>
+        <v>7707483059</v>
       </c>
       <c r="C1941" s="14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1942" s="14" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1942" s="15">
+        <v>7707483059</v>
+      </c>
+      <c r="C1942" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1943" s="18" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1943" s="19">
+        <v>7722373780</v>
+      </c>
+      <c r="C1943" s="18" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1944" s="20" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1944" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1944" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1945" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1945" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1945" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1946" s="20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1946" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1946" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1947" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1947" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1947" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1948" s="20" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1948" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1948" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1949" s="20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1949" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1949" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1950" s="20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1950" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1950" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1951" s="20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1951" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1951" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1952" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1952" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1952" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1953" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1953" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1953" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1954" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1954" s="21">
+        <v>7719756328</v>
+      </c>
+      <c r="C1954" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1955" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1955" s="21">
+        <v>7722373780</v>
+      </c>
+      <c r="C1955" s="20" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1956" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1956" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1956" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1957" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1957" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1957" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1958" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1958" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1958" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1959" s="20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1959" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1959" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1960" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1960" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1960" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1961" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1961" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1961" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1962" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1962" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1962" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1963" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1963" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1963" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1964" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1964" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1964" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1965" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1965" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1965" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1966" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1966" s="21">
+        <v>7460043616</v>
+      </c>
+      <c r="C1966" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1967" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1967" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1967" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1968" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1968" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1968" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1969" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1969" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1969" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1970" s="20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1970" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1970" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1971" s="20" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1971" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1971" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1972" s="20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1972" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1972" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1973" s="20" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1973" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1973" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1974" s="20" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1974" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1974" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1975" s="20" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1975" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1975" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1976" s="20" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1976" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1976" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1977" s="20" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1977" s="21">
+        <v>7724351126</v>
+      </c>
+      <c r="C1977" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1978" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1978" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1978" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1979" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1979" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1979" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1980" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1980" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1980" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1981" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1981" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1981" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1982" s="20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1982" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1982" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1983" s="20" t="s">
         <v>1940</v>
       </c>
-      <c r="B1942" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1942" s="14" t="s">
+      <c r="B1983" s="21">
+        <v>7715464194</v>
+      </c>
+      <c r="C1983" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1984" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1984" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1984" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1985" s="20" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1985" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1985" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1986" s="20" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1986" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1986" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1987" s="20" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1987" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1987" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1988" s="20" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1988" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1988" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1989" s="20" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1989" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1989" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="1943" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1943" s="14" t="s">
+    <row r="1990" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1990" s="20" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1990" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1990" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1991" s="20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1991" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1991" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1992" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1992" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1992" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1993" s="20" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1993" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1993" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1994" s="20" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1994" s="21">
+        <v>9701142296</v>
+      </c>
+      <c r="C1994" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1995" s="20" t="s">
         <v>1941</v>
       </c>
-      <c r="B1943" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1943" s="14" t="s">
+      <c r="B1995" s="21">
+        <v>7707483059</v>
+      </c>
+      <c r="C1995" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1996" s="20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1996" s="21">
+        <v>7707483059</v>
+      </c>
+      <c r="C1996" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="1944" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1944" s="14" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B1944" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1944" s="14" t="s">
+    <row r="1997" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1997" s="20" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1997" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C1997" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1998" s="20" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1998" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C1998" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1999" s="20" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1999" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C1999" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2000" s="20" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B2000" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2000" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2001" s="20" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B2001" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2001" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2002" s="20" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B2002" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2002" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2003" s="20" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2003" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2003" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2004" s="20" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2004" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2004" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1945" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1945" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B1945" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1945" s="14" t="s">
+    <row r="2005" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2005" s="20" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2005" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2005" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1946" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1946" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B1946" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1946" s="14" t="s">
+    <row r="2006" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2006" s="20" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B2006" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2006" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1947" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1947" s="14" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B1947" s="15">
-        <v>7719756328</v>
-      </c>
-      <c r="C1947" s="14" t="s">
+    <row r="2007" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2007" s="20" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B2007" s="21">
+        <v>610999706863</v>
+      </c>
+      <c r="C2007" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1948" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1948" s="14" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B1948" s="15">
-        <v>7722373780</v>
-      </c>
-      <c r="C1948" s="14" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1949" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1949" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1949" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1950" s="14" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1950" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1950" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1951" s="14" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B1951" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1951" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1952" s="14" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B1952" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1952" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1953" s="14" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B1953" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1953" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1954" s="14" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B1954" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1954" s="14" t="s">
+    <row r="2008" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2008" s="20" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2008" s="20">
+        <v>6312204441</v>
+      </c>
+      <c r="C2008" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="1955" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1955" s="14" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1955" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1955" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1956" s="14" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B1956" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1956" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1957" s="14" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1957" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1957" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1958" s="14" t="s">
-        <v>1957</v>
-      </c>
-      <c r="B1958" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1958" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1959" s="14" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1959" s="15">
-        <v>7460043616</v>
-      </c>
-      <c r="C1959" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1960" s="14" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B1960" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1960" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1961" s="14" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B1961" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1961" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1962" s="14" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1962" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1962" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1963" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B1963" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1963" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1964" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B1964" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1964" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1965" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B1965" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1965" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1966" s="14" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B1966" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1966" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1967" s="14" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B1967" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1967" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1968" s="14" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B1968" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1968" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1969" s="14" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B1969" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1969" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1970" s="14" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B1970" s="15">
-        <v>7724351126</v>
-      </c>
-      <c r="C1970" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1971" s="14" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B1971" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1971" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1972" s="14" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1972" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1972" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1973" s="14" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B1973" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1973" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1974" s="14" t="s">
-        <v>1973</v>
-      </c>
-      <c r="B1974" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1974" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1975" s="14" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B1975" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1975" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1976" s="14" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B1976" s="15">
-        <v>7715464194</v>
-      </c>
-      <c r="C1976" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1977" s="14" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B1977" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1977" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1978" s="14" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B1978" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1978" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1979" s="14" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B1979" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1979" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1980" s="14" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B1980" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1980" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1981" s="14" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B1981" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1981" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1982" s="14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B1982" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1982" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1983" s="14" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B1983" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1983" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1984" s="14" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B1984" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1984" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1985" s="14" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B1985" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1985" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1986" s="14" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B1986" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1986" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1987" s="14" t="s">
-        <v>1986</v>
-      </c>
-      <c r="B1987" s="15">
-        <v>9701142296</v>
-      </c>
-      <c r="C1987" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1988" s="14" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B1988" s="15">
-        <v>7707483059</v>
-      </c>
-      <c r="C1988" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1989" s="14" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B1989" s="15">
-        <v>7707483059</v>
-      </c>
-      <c r="C1989" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1990" s="14" t="s">
-        <v>1989</v>
-      </c>
-      <c r="B1990" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1990" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1991" s="14" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B1991" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1991" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1992" s="14" t="s">
-        <v>1991</v>
-      </c>
-      <c r="B1992" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1992" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1993" s="14" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B1993" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1993" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1994" s="14" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B1994" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1994" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1995" s="14" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B1995" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1995" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1996" s="14" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B1996" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1996" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1997" s="14" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B1997" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1997" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1998" s="14" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B1998" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1998" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1999" s="14" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B1999" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C1999" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2000" s="14" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B2000" s="15">
-        <v>610999706863</v>
-      </c>
-      <c r="C2000" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:C1926" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:C1943" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
